--- a/IP címek.xlsx
+++ b/IP címek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F3E48-D58C-4F23-8ED2-0194619A2402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D8DAB3-06AB-4D78-B953-0B5BB92123DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>PC</t>
   </si>
@@ -162,13 +162,151 @@
   </si>
   <si>
     <t>SWITCH_BP_ADMIN_3</t>
+  </si>
+  <si>
+    <t>VLAN 10</t>
+  </si>
+  <si>
+    <t>VLAN 20</t>
+  </si>
+  <si>
+    <t>VLAN 30</t>
+  </si>
+  <si>
+    <t>VLAN 40</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.10.0 </t>
+  </si>
+  <si>
+    <t>192.168.20.0</t>
+  </si>
+  <si>
+    <t>192.168.30.0</t>
+  </si>
+  <si>
+    <t>192.168.40.0</t>
+  </si>
+  <si>
+    <t>SWITCH_BP_1</t>
+  </si>
+  <si>
+    <t>SWITCH_BP_2</t>
+  </si>
+  <si>
+    <t>SWITCH_BP_3</t>
+  </si>
+  <si>
+    <t>SWITCH_BP_4</t>
+  </si>
+  <si>
+    <t>ROUTER_BP_MAIN</t>
+  </si>
+  <si>
+    <t>GigabitEthernet 0/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet 0/2</t>
+  </si>
+  <si>
+    <t>Serial 0/0/0</t>
+  </si>
+  <si>
+    <t>25 GÉP</t>
+  </si>
+  <si>
+    <t>50 GÉP</t>
+  </si>
+  <si>
+    <t>1 GÉP</t>
+  </si>
+  <si>
+    <t>192.168.10.10</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>192.168.10.11</t>
+  </si>
+  <si>
+    <t>192.168.10.12</t>
+  </si>
+  <si>
+    <t>192.168.10.40</t>
+  </si>
+  <si>
+    <t>192.168.10.41</t>
+  </si>
+  <si>
+    <t>192.168.10.42</t>
+  </si>
+  <si>
+    <t>192.168.10.80</t>
+  </si>
+  <si>
+    <t>192.168.20.1</t>
+  </si>
+  <si>
+    <t>192.168.20.10</t>
+  </si>
+  <si>
+    <t>192.168.20.11</t>
+  </si>
+  <si>
+    <t>192.168.20.12</t>
+  </si>
+  <si>
+    <t>192.168.20.13</t>
+  </si>
+  <si>
+    <t>192.168.20.14</t>
+  </si>
+  <si>
+    <t>192.168.20.15</t>
+  </si>
+  <si>
+    <t>192.168.20.16</t>
+  </si>
+  <si>
+    <t>192.168.20.17</t>
+  </si>
+  <si>
+    <t>192.168.20.70</t>
+  </si>
+  <si>
+    <t>192.168.30.10</t>
+  </si>
+  <si>
+    <t>192.168.30.1</t>
+  </si>
+  <si>
+    <t>192.168.30.11</t>
+  </si>
+  <si>
+    <t>192.168.30.12</t>
+  </si>
+  <si>
+    <t>192.168.40.10</t>
+  </si>
+  <si>
+    <t>192.168.40.1</t>
+  </si>
+  <si>
+    <t>192.168.40.20</t>
+  </si>
+  <si>
+    <t>192.168.40.30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +347,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +394,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -373,11 +550,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -393,15 +650,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -423,18 +674,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -477,6 +719,59 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -764,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G9:M36"/>
+  <dimension ref="G9:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,275 +1070,646 @@
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+    <row r="9" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="18" t="s">
+    <row r="10" spans="7:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="19"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="10" t="s">
+      <c r="J10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="44"/>
+      <c r="N10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G11" s="17"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="19"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="10" t="s">
+      <c r="J11" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="39"/>
+      <c r="S11" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+    </row>
+    <row r="12" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G12" s="17"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="19"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="10" t="s">
+      <c r="J12" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="44"/>
+      <c r="N12" s="39"/>
+      <c r="S12" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+    </row>
+    <row r="13" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G13" s="17"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="19"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="10" t="s">
+      <c r="J13" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="56"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="40"/>
+      <c r="S13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+    </row>
+    <row r="14" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G14" s="17"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="19"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="10" t="s">
+      <c r="J14" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="44"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="40"/>
+      <c r="S14" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+    </row>
+    <row r="15" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G15" s="17"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="19"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="10" t="s">
+      <c r="J15" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="56"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="G16" s="17"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="19"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="11" t="s">
+      <c r="J16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="44"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="7:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="17"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="19"/>
-      <c r="H18" s="24" t="s">
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="19"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="10" t="s">
+      <c r="J18" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="60"/>
+      <c r="N18" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G19" s="17"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G20" s="19"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="10" t="s">
+      <c r="J19" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="56"/>
+      <c r="N19" s="39"/>
+      <c r="S19" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+    </row>
+    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G20" s="17"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G21" s="19"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="10" t="s">
+      <c r="J20" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="44"/>
+      <c r="N20" s="39"/>
+      <c r="S20" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G21" s="17"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G22" s="19"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="10" t="s">
+      <c r="J21" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="56"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="S21" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+    </row>
+    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G22" s="17"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="19"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="10" t="s">
+      <c r="J22" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="44"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="40"/>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G23" s="17"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="19"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="10" t="s">
+      <c r="J23" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="56"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="40"/>
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G24" s="17"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G25" s="19"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="10" t="s">
+      <c r="J24" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="44"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="40"/>
+    </row>
+    <row r="25" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G25" s="17"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="19"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="10" t="s">
+      <c r="J25" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="56"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="40"/>
+    </row>
+    <row r="26" spans="7:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="17"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G27" s="19"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="10" t="s">
+      <c r="J26" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="44"/>
+      <c r="N26" s="39"/>
+    </row>
+    <row r="27" spans="7:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="17"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G28" s="19"/>
-      <c r="H28" s="13" t="s">
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="53"/>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G28" s="17"/>
+      <c r="H28" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G29" s="19"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="10" t="s">
+      <c r="J28" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="60"/>
+      <c r="N28" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G29" s="17"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="19"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="10" t="s">
+      <c r="J29" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="56"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="40"/>
+    </row>
+    <row r="30" spans="7:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="17"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G31" s="19"/>
-      <c r="H31" s="16" t="s">
+      <c r="J30" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="61"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" s="40"/>
+    </row>
+    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G31" s="17"/>
+      <c r="H31" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G32" s="19"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="10" t="s">
+      <c r="J31" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="59"/>
+      <c r="N31" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G32" s="17"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G33" s="19"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="10" t="s">
+      <c r="J32" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="44"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" s="40"/>
+    </row>
+    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G33" s="17"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G34" s="19"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="10" t="s">
+      <c r="J33" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="56"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="40"/>
+    </row>
+    <row r="34" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G34" s="17"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G35" s="19"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="10" t="s">
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="40"/>
+    </row>
+    <row r="35" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G35" s="17"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G36" s="20"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="11" t="s">
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="40"/>
+    </row>
+    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G36" s="18"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="21">
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="N18:N27"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="N31:N36"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="O23:P24"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O32:P33"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O36:P36"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="H31:H36"/>
     <mergeCell ref="G10:G36"/>
     <mergeCell ref="H10:H17"/>
     <mergeCell ref="H18:H27"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1067,7 +1733,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="6"/>
@@ -1086,70 +1752,70 @@
       </c>
     </row>
     <row r="9" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="36"/>
-      <c r="H9" s="38" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="33" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="9"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="36"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="36"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="12"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="36"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="10"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="36"/>
-      <c r="H14" s="39"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="12"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="36"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="10"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="36"/>
-      <c r="H16" s="39"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="36"/>
-      <c r="H17" s="40"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="12"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="36"/>
-      <c r="H18" s="27" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -1161,32 +1827,32 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="36"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G20" s="36"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G21" s="36"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G22" s="36"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="11" t="s">
         <v>9</v>
       </c>
@@ -1196,8 +1862,8 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="36"/>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="25" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -1209,16 +1875,16 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="36"/>
-      <c r="H24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G25" s="36"/>
-      <c r="H25" s="32"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="11" t="s">
         <v>2</v>
       </c>
@@ -1228,8 +1894,8 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G26" s="36"/>
-      <c r="H26" s="33" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="28" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="10" t="s">
@@ -1238,32 +1904,32 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G27" s="36"/>
-      <c r="H27" s="33"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G28" s="36"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G29" s="36"/>
-      <c r="H29" s="33"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="37"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="11" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1969,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="6"/>
@@ -1322,70 +1988,70 @@
       </c>
     </row>
     <row r="9" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="36"/>
-      <c r="H9" s="38" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="33" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="9"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="36"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="36"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="12"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="36"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="10"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="36"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="36"/>
-      <c r="H14" s="39"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="12"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="36"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="10"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="36"/>
-      <c r="H16" s="39"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="12" t="s">
         <v>2</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="36"/>
-      <c r="H17" s="40"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="12"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="36"/>
-      <c r="H18" s="27" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -1397,32 +2063,32 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="36"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G20" s="36"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G21" s="36"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G22" s="36"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="11" t="s">
         <v>9</v>
       </c>
@@ -1432,8 +2098,8 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="36"/>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="25" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -1445,16 +2111,16 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="36"/>
-      <c r="H24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G25" s="36"/>
-      <c r="H25" s="32"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="11" t="s">
         <v>2</v>
       </c>
@@ -1464,8 +2130,8 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G26" s="36"/>
-      <c r="H26" s="33" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="28" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="10" t="s">
@@ -1474,32 +2140,32 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G27" s="36"/>
-      <c r="H27" s="33"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G28" s="36"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G29" s="36"/>
-      <c r="H29" s="33"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="37"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="11" t="s">
         <v>9</v>
       </c>

--- a/IP címek.xlsx
+++ b/IP címek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCB0116-0680-41D3-8A25-EE1975D9EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE273A1-821A-4792-8BB8-BDE03E615E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="4905" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDAPESTI KÖZPONT" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="219">
   <si>
     <t>IP CÍM</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>SWITCH_D_ADMIN_3</t>
+  </si>
+  <si>
+    <t>DEBRECENI TELEPHELY</t>
   </si>
 </sst>
 </file>
@@ -1046,51 +1049,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1118,6 +1076,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1158,15 +1170,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1494,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B9:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1522,7 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1542,8 +1545,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1559,7 +1562,7 @@
         <v>77</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="33" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1573,8 +1576,8 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="49"/>
+      <c r="I11" s="34"/>
       <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1603,8 +1606,8 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>77</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="49"/>
+      <c r="I12" s="34"/>
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1633,8 +1636,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="25" t="s">
         <v>25</v>
       </c>
@@ -1648,11 +1651,11 @@
         <v>77</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53" t="s">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="54"/>
+      <c r="K13" s="39"/>
       <c r="M13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1667,8 +1670,8 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="25" t="s">
         <v>26</v>
       </c>
@@ -1682,9 +1685,9 @@
         <v>77</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
       <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1699,8 +1702,8 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
@@ -1714,15 +1717,15 @@
         <v>77</v>
       </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="54"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1736,13 +1739,13 @@
         <v>77</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1756,15 +1759,15 @@
         <v>77</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="53" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="54"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1780,7 +1783,7 @@
         <v>78</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="36" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1797,8 +1800,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>78</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="34"/>
       <c r="M19" s="9" t="s">
         <v>51</v>
       </c>
@@ -1827,8 +1830,8 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>78</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="49"/>
+      <c r="I20" s="34"/>
       <c r="M20" s="9" t="s">
         <v>52</v>
       </c>
@@ -1857,8 +1860,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
@@ -1872,11 +1875,11 @@
         <v>78</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="53" t="s">
+      <c r="I21" s="34"/>
+      <c r="J21" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="39"/>
       <c r="M21" s="9" t="s">
         <v>53</v>
       </c>
@@ -1888,8 +1891,8 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1903,9 +1906,9 @@
         <v>78</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
       <c r="M22" s="9" t="s">
         <v>54</v>
       </c>
@@ -1917,8 +1920,8 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1932,11 +1935,11 @@
         <v>78</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="54"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="39"/>
       <c r="M23" s="9" t="s">
         <v>46</v>
       </c>
@@ -1944,8 +1947,8 @@
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
@@ -1959,13 +1962,13 @@
         <v>78</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
@@ -1979,15 +1982,15 @@
         <v>78</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="54"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>78</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="49"/>
+      <c r="I26" s="34"/>
       <c r="M26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2016,8 +2019,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>78</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="50"/>
+      <c r="I27" s="35"/>
       <c r="M27" s="9" t="s">
         <v>51</v>
       </c>
@@ -2046,8 +2049,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2063,13 +2066,13 @@
         <v>79</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="K28" s="56"/>
+      <c r="K28" s="41"/>
       <c r="M28" s="9" t="s">
         <v>52</v>
       </c>
@@ -2084,8 +2087,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="25" t="s">
         <v>30</v>
       </c>
@@ -2099,11 +2102,11 @@
         <v>79</v>
       </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="54"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="39"/>
       <c r="M29" s="9" t="s">
         <v>53</v>
       </c>
@@ -2115,8 +2118,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2130,11 +2133,11 @@
         <v>79</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="53" t="s">
+      <c r="I30" s="35"/>
+      <c r="J30" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="54"/>
+      <c r="K30" s="39"/>
       <c r="M30" s="9" t="s">
         <v>54</v>
       </c>
@@ -2146,8 +2149,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -2163,7 +2166,7 @@
         <v>80</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="36" t="s">
         <v>133</v>
       </c>
       <c r="M31" s="9" t="s">
@@ -2173,8 +2176,8 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="46"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
@@ -2188,15 +2191,15 @@
         <v>80</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="53" t="s">
+      <c r="I32" s="34"/>
+      <c r="J32" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="K32" s="54"/>
+      <c r="K32" s="39"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2210,13 +2213,13 @@
         <v>80</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2230,15 +2233,15 @@
         <v>80</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="54"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="39"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2252,13 +2255,13 @@
         <v>80</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="47"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="4" t="s">
         <v>36</v>
       </c>
@@ -2272,14 +2275,19 @@
         <v>80</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53" t="s">
+      <c r="I36" s="37"/>
+      <c r="J36" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="54"/>
+      <c r="K36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B9:B36"/>
     <mergeCell ref="I10:I17"/>
     <mergeCell ref="I18:I27"/>
     <mergeCell ref="I28:I30"/>
@@ -2296,11 +2304,6 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B9:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2312,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FF8342-E713-4ECC-957D-961FCC53A967}">
   <dimension ref="B5:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2342,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2362,8 +2365,8 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
-      <c r="C9" s="60" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="6"/>
@@ -2371,7 +2374,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="60" t="s">
         <v>38</v>
       </c>
       <c r="J9" t="s">
@@ -2388,8 +2391,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="72"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="16" t="s">
         <v>178</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="57"/>
+      <c r="I10" s="60"/>
       <c r="J10" t="s">
         <v>103</v>
       </c>
@@ -2421,14 +2424,14 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="17"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="57"/>
+      <c r="I11" s="60"/>
       <c r="M11" s="3" t="s">
         <v>128</v>
       </c>
@@ -2443,14 +2446,14 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="60"/>
       <c r="M12" s="3" t="s">
         <v>129</v>
       </c>
@@ -2465,8 +2468,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="61"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="29" t="s">
         <v>179</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>124</v>
       </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="57"/>
+      <c r="I13" s="60"/>
       <c r="M13" s="3" t="s">
         <v>130</v>
       </c>
@@ -2495,28 +2498,28 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="18"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="72"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="16" t="s">
         <v>180</v>
       </c>
@@ -2530,17 +2533,17 @@
         <v>124</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="16"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="33"/>
       <c r="M17" s="3" t="s">
         <v>131</v>
       </c>
@@ -2555,8 +2558,8 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="66" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2572,7 +2575,7 @@
         <v>121</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="61" t="s">
         <v>37</v>
       </c>
       <c r="J18" t="s">
@@ -2592,8 +2595,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="4" t="s">
         <v>182</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>121</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="60"/>
       <c r="J19" t="s">
         <v>99</v>
       </c>
@@ -2625,8 +2628,8 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="4" t="s">
         <v>183</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>121</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="60"/>
       <c r="M20" s="9" t="s">
         <v>53</v>
       </c>
@@ -2652,8 +2655,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="72"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="4" t="s">
         <v>184</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>121</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="60"/>
       <c r="M21" s="9" t="s">
         <v>54</v>
       </c>
@@ -2679,8 +2682,8 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="6" t="s">
         <v>185</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>121</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="62"/>
       <c r="M22" s="9" t="s">
         <v>46</v>
       </c>
@@ -2702,8 +2705,8 @@
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
-      <c r="C23" s="66" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="69" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -2719,7 +2722,7 @@
         <v>114</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="61" t="s">
         <v>39</v>
       </c>
       <c r="J23" t="s">
@@ -2727,8 +2730,8 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="25" t="s">
         <v>187</v>
       </c>
@@ -2742,14 +2745,14 @@
         <v>114</v>
       </c>
       <c r="H24" s="25"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="60"/>
       <c r="J24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
-      <c r="C25" s="67"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="6" t="s">
         <v>188</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>114</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="48"/>
+      <c r="I25" s="33"/>
       <c r="M25" s="3" t="s">
         <v>132</v>
       </c>
@@ -2778,8 +2781,8 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="72"/>
-      <c r="C26" s="68" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="71" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -2795,7 +2798,7 @@
         <v>106</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="36" t="s">
         <v>133</v>
       </c>
       <c r="J26" t="s">
@@ -2815,8 +2818,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="72"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="4" t="s">
         <v>190</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>106</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="49"/>
+      <c r="I27" s="34"/>
       <c r="J27" t="s">
         <v>101</v>
       </c>
@@ -2848,8 +2851,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="72"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="4" t="s">
         <v>191</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>106</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="49"/>
+      <c r="I28" s="34"/>
       <c r="M28" s="9" t="s">
         <v>53</v>
       </c>
@@ -2875,8 +2878,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="72"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="4" t="s">
         <v>192</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>106</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="49"/>
+      <c r="I29" s="34"/>
       <c r="M29" s="9" t="s">
         <v>54</v>
       </c>
@@ -2902,8 +2905,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="72"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="4" t="s">
         <v>193</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>106</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="49"/>
+      <c r="I30" s="34"/>
       <c r="M30" s="9" t="s">
         <v>46</v>
       </c>
@@ -2925,8 +2928,8 @@
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="73"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="4" t="s">
         <v>194</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>106</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2964,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B959F40D-70A9-47C2-99A0-8342AE521164}">
   <dimension ref="B8:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,8 +2987,8 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
-        <v>8</v>
+      <c r="B8" s="57" t="s">
+        <v>218</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>125</v>
@@ -3007,7 +3010,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="77" t="s">
         <v>2</v>
       </c>
@@ -3016,7 +3019,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="60" t="s">
         <v>37</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -3030,7 +3033,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="72"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="78"/>
       <c r="D10" s="16" t="s">
         <v>201</v>
@@ -3045,7 +3048,7 @@
         <v>144</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="57"/>
+      <c r="I10" s="60"/>
       <c r="M10" s="3" t="s">
         <v>195</v>
       </c>
@@ -3060,14 +3063,14 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="78"/>
       <c r="D11" s="17"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="57"/>
+      <c r="I11" s="60"/>
       <c r="M11" s="3" t="s">
         <v>196</v>
       </c>
@@ -3082,14 +3085,14 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="78"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="60"/>
       <c r="M12" s="3" t="s">
         <v>197</v>
       </c>
@@ -3104,7 +3107,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="78"/>
       <c r="D13" s="29" t="s">
         <v>202</v>
@@ -3119,7 +3122,7 @@
         <v>144</v>
       </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="57"/>
+      <c r="I13" s="60"/>
       <c r="M13" s="3" t="s">
         <v>198</v>
       </c>
@@ -3134,27 +3137,27 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="78"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="78"/>
       <c r="D15" s="18"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="72"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="78"/>
       <c r="D16" s="16" t="s">
         <v>203</v>
@@ -3169,17 +3172,17 @@
         <v>144</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="79"/>
       <c r="D17" s="16"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="33"/>
       <c r="M17" s="3" t="s">
         <v>199</v>
       </c>
@@ -3194,7 +3197,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="80" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>152</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="61" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="9" t="s">
@@ -3228,7 +3231,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="81"/>
       <c r="D19" s="4" t="s">
         <v>205</v>
@@ -3243,7 +3246,7 @@
         <v>152</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="60"/>
       <c r="M19" s="9" t="s">
         <v>52</v>
       </c>
@@ -3258,7 +3261,7 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="81"/>
       <c r="D20" s="4" t="s">
         <v>206</v>
@@ -3273,7 +3276,7 @@
         <v>152</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="60"/>
       <c r="M20" s="9" t="s">
         <v>53</v>
       </c>
@@ -3285,7 +3288,7 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="72"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="81"/>
       <c r="D21" s="4" t="s">
         <v>207</v>
@@ -3300,7 +3303,7 @@
         <v>152</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="60"/>
       <c r="M21" s="9" t="s">
         <v>54</v>
       </c>
@@ -3312,7 +3315,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="82"/>
       <c r="D22" s="6" t="s">
         <v>208</v>
@@ -3327,7 +3330,7 @@
         <v>152</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="62"/>
       <c r="M22" s="9" t="s">
         <v>46</v>
       </c>
@@ -3335,7 +3338,7 @@
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="83" t="s">
         <v>5</v>
       </c>
@@ -3352,12 +3355,12 @@
         <v>153</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="61" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="84"/>
       <c r="D24" s="25" t="s">
         <v>210</v>
@@ -3372,10 +3375,10 @@
         <v>153</v>
       </c>
       <c r="H24" s="25"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="60"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="85"/>
       <c r="D25" s="6" t="s">
         <v>211</v>
@@ -3390,7 +3393,7 @@
         <v>153</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="59"/>
+      <c r="I25" s="62"/>
       <c r="M25" s="3" t="s">
         <v>200</v>
       </c>
@@ -3405,8 +3408,8 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="72"/>
-      <c r="C26" s="68" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="71" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3439,8 +3442,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="72"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="4" t="s">
         <v>213</v>
       </c>
@@ -3469,8 +3472,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="72"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="4" t="s">
         <v>214</v>
       </c>
@@ -3496,8 +3499,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="72"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="4" t="s">
         <v>215</v>
       </c>
@@ -3523,8 +3526,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="72"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="4" t="s">
         <v>216</v>
       </c>
@@ -3546,8 +3549,8 @@
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="73"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="4" t="s">
         <v>217</v>
       </c>

--- a/IP címek.xlsx
+++ b/IP címek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE273A1-821A-4792-8BB8-BDE03E615E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FAA72-44F5-42F9-8E77-31976FE53379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDAPESTI KÖZPONT" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="222">
   <si>
     <t>IP CÍM</t>
   </si>
@@ -212,39 +212,21 @@
     <t>192.100.10.5</t>
   </si>
   <si>
-    <t>192.100.20.10</t>
-  </si>
-  <si>
     <t>192.100.20.11</t>
   </si>
   <si>
-    <t>192.100.20.12</t>
-  </si>
-  <si>
     <t>192.100.20.13</t>
   </si>
   <si>
     <t>192.100.20.14</t>
   </si>
   <si>
-    <t>192.100.20.15</t>
-  </si>
-  <si>
-    <t>192.100.20.16</t>
-  </si>
-  <si>
-    <t>192.100.20.17</t>
-  </si>
-  <si>
     <t>192.100.20.5</t>
   </si>
   <si>
     <t>192.100.30.10</t>
   </si>
   <si>
-    <t>192.100.30.12</t>
-  </si>
-  <si>
     <t>192.100.99.10</t>
   </si>
   <si>
@@ -687,6 +669,33 @@
   </si>
   <si>
     <t>DEBRECENI TELEPHELY</t>
+  </si>
+  <si>
+    <t>192.100.10.15</t>
+  </si>
+  <si>
+    <t>192.100.10.14</t>
+  </si>
+  <si>
+    <t>192.100.20.19</t>
+  </si>
+  <si>
+    <t>192.100.20.26</t>
+  </si>
+  <si>
+    <t>192.100.20.20</t>
+  </si>
+  <si>
+    <t>192.100.20.22</t>
+  </si>
+  <si>
+    <t>192.100.20.21</t>
+  </si>
+  <si>
+    <t>192.100.30.11</t>
+  </si>
+  <si>
+    <t>192.100.30.13</t>
   </si>
 </sst>
 </file>
@@ -1049,6 +1058,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1075,51 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1498,7 +1507,7 @@
   <dimension ref="B9:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,14 +1531,14 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>0</v>
@@ -1545,24 +1554,24 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="48" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1576,68 +1585,68 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="34"/>
+      <c r="I11" s="49"/>
       <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="49"/>
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="52"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="25" t="s">
         <v>25</v>
       </c>
@@ -1648,30 +1657,30 @@
         <v>40</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="39"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="54"/>
       <c r="M13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="25" t="s">
         <v>26</v>
       </c>
@@ -1682,28 +1691,28 @@
         <v>40</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
@@ -1714,38 +1723,38 @@
         <v>40</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="39"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="55"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1756,34 +1765,34 @@
         <v>40</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="38" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="51" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1800,146 +1809,146 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="34"/>
+      <c r="I19" s="49"/>
       <c r="M19" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="49"/>
       <c r="M20" s="9" t="s">
         <v>52</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="39"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="54"/>
       <c r="M21" s="9" t="s">
         <v>53</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="M22" s="9" t="s">
         <v>54</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="39"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="54"/>
       <c r="M23" s="9" t="s">
         <v>46</v>
       </c>
@@ -1947,64 +1956,64 @@
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38" t="s">
+      <c r="I25" s="49"/>
+      <c r="J25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="39"/>
+      <c r="K25" s="54"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="34"/>
+      <c r="I26" s="49"/>
       <c r="M26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2019,155 +2028,155 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="35"/>
+      <c r="I27" s="50"/>
       <c r="M27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="45" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="36" t="s">
+      <c r="I28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="41"/>
+      <c r="J28" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="56"/>
       <c r="M28" s="9" t="s">
         <v>52</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="39"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="54"/>
       <c r="M29" s="9" t="s">
         <v>53</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="55"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="38" t="s">
+      <c r="I30" s="50"/>
+      <c r="J30" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="39"/>
+      <c r="K30" s="54"/>
       <c r="M30" s="9" t="s">
         <v>54</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="42" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="36" t="s">
-        <v>133</v>
+      <c r="I31" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>46</v>
@@ -2176,118 +2185,113 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="39"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="54"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="55"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="55"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="39"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="54"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="55"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="56"/>
-      <c r="C36" s="44"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38" t="s">
+      <c r="I36" s="52"/>
+      <c r="J36" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="39"/>
+      <c r="K36" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B9:B36"/>
     <mergeCell ref="I10:I17"/>
     <mergeCell ref="I18:I27"/>
     <mergeCell ref="I28:I30"/>
@@ -2304,6 +2308,11 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B9:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2338,7 +2347,7 @@
   <sheetData>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,10 +2355,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
@@ -2378,7 +2387,7 @@
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>0</v>
@@ -2394,33 +2403,33 @@
       <c r="B10" s="58"/>
       <c r="C10" s="64"/>
       <c r="D10" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="60"/>
       <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -2433,16 +2442,16 @@
       <c r="H11" s="21"/>
       <c r="I11" s="60"/>
       <c r="M11" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -2455,46 +2464,46 @@
       <c r="H12" s="28"/>
       <c r="I12" s="60"/>
       <c r="M12" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="58"/>
       <c r="C13" s="64"/>
       <c r="D13" s="29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="60"/>
       <c r="M13" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -2521,16 +2530,16 @@
       <c r="B16" s="58"/>
       <c r="C16" s="64"/>
       <c r="D16" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="60"/>
@@ -2543,9 +2552,9 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="48"/>
       <c r="M17" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>0</v>
@@ -2563,84 +2572,84 @@
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="61" t="s">
         <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="58"/>
       <c r="C19" s="67"/>
       <c r="D19" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="60"/>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>52</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="58"/>
       <c r="C20" s="67"/>
       <c r="D20" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="60"/>
@@ -2648,26 +2657,26 @@
         <v>53</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="58"/>
       <c r="C21" s="67"/>
       <c r="D21" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="60"/>
@@ -2675,26 +2684,26 @@
         <v>54</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="58"/>
       <c r="C22" s="68"/>
       <c r="D22" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="62"/>
@@ -2710,65 +2719,65 @@
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="61" t="s">
         <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="58"/>
       <c r="C24" s="70"/>
       <c r="D24" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="60"/>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
       <c r="C25" s="70"/>
       <c r="D25" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="33"/>
+      <c r="I25" s="48"/>
       <c r="M25" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>0</v>
@@ -2786,141 +2795,141 @@
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="36" t="s">
-        <v>133</v>
+      <c r="I26" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="58"/>
       <c r="C27" s="72"/>
       <c r="D27" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="34"/>
+      <c r="I27" s="49"/>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="58"/>
       <c r="C28" s="72"/>
       <c r="D28" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="34"/>
+      <c r="I28" s="49"/>
       <c r="M28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="58"/>
       <c r="C29" s="72"/>
       <c r="D29" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="34"/>
+      <c r="I29" s="49"/>
       <c r="M29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="58"/>
       <c r="C30" s="72"/>
       <c r="D30" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="34"/>
+      <c r="I30" s="49"/>
       <c r="M30" s="9" t="s">
         <v>46</v>
       </c>
@@ -2931,19 +2940,19 @@
       <c r="B31" s="59"/>
       <c r="C31" s="73"/>
       <c r="D31" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="37"/>
+      <c r="I31" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2988,13 +2997,13 @@
   <sheetData>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
@@ -3036,30 +3045,30 @@
       <c r="B10" s="58"/>
       <c r="C10" s="78"/>
       <c r="D10" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="60"/>
       <c r="M10" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -3072,16 +3081,16 @@
       <c r="H11" s="21"/>
       <c r="I11" s="60"/>
       <c r="M11" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -3094,46 +3103,46 @@
       <c r="H12" s="28"/>
       <c r="I12" s="60"/>
       <c r="M12" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="58"/>
       <c r="C13" s="78"/>
       <c r="D13" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="60"/>
       <c r="M13" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -3160,16 +3169,16 @@
       <c r="B16" s="58"/>
       <c r="C16" s="78"/>
       <c r="D16" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="60"/>
@@ -3182,9 +3191,9 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="48"/>
       <c r="M17" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>0</v>
@@ -3202,16 +3211,16 @@
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="61" t="s">
@@ -3221,29 +3230,29 @@
         <v>51</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="58"/>
       <c r="C19" s="81"/>
       <c r="D19" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="60"/>
@@ -3251,29 +3260,29 @@
         <v>52</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="58"/>
       <c r="C20" s="81"/>
       <c r="D20" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="60"/>
@@ -3281,7 +3290,7 @@
         <v>53</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>40</v>
@@ -3291,16 +3300,16 @@
       <c r="B21" s="58"/>
       <c r="C21" s="81"/>
       <c r="D21" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="60"/>
@@ -3308,7 +3317,7 @@
         <v>54</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>40</v>
@@ -3318,16 +3327,16 @@
       <c r="B22" s="58"/>
       <c r="C22" s="82"/>
       <c r="D22" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="62"/>
@@ -3343,16 +3352,16 @@
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="61" t="s">
@@ -3363,16 +3372,16 @@
       <c r="B24" s="58"/>
       <c r="C24" s="84"/>
       <c r="D24" s="25" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="60"/>
@@ -3381,21 +3390,21 @@
       <c r="B25" s="58"/>
       <c r="C25" s="85"/>
       <c r="D25" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="62"/>
       <c r="M25" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>0</v>
@@ -3413,48 +3422,48 @@
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="74" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="58"/>
       <c r="C27" s="72"/>
       <c r="D27" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="75"/>
@@ -3462,29 +3471,29 @@
         <v>52</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="58"/>
       <c r="C28" s="72"/>
       <c r="D28" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="75"/>
@@ -3492,7 +3501,7 @@
         <v>53</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>40</v>
@@ -3502,16 +3511,16 @@
       <c r="B29" s="58"/>
       <c r="C29" s="72"/>
       <c r="D29" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="75"/>
@@ -3519,7 +3528,7 @@
         <v>54</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>40</v>
@@ -3529,16 +3538,16 @@
       <c r="B30" s="58"/>
       <c r="C30" s="72"/>
       <c r="D30" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="75"/>
@@ -3552,16 +3561,16 @@
       <c r="B31" s="59"/>
       <c r="C31" s="73"/>
       <c r="D31" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="76"/>

--- a/IP címek.xlsx
+++ b/IP címek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FAA72-44F5-42F9-8E77-31976FE53379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333556A9-5B5C-4479-89D3-B6FC93A42881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDAPESTI KÖZPONT" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="228">
   <si>
     <t>IP CÍM</t>
   </si>
@@ -353,9 +353,6 @@
     <t>192.150.0.172</t>
   </si>
   <si>
-    <t>192.150.174</t>
-  </si>
-  <si>
     <t>192.150.0.169</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>192.150.0.12</t>
   </si>
   <si>
-    <t>192.150.0.100</t>
-  </si>
-  <si>
     <t>192.150.0.5</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>192.150.0.164</t>
   </si>
   <si>
-    <t>192.150.0.166</t>
-  </si>
-  <si>
     <t>192.150.0.161</t>
   </si>
   <si>
@@ -696,6 +687,33 @@
   </si>
   <si>
     <t>192.100.30.13</t>
+  </si>
+  <si>
+    <t>HSRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTP </t>
+  </si>
+  <si>
+    <t>DOMAIN</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>gls.hu</t>
+  </si>
+  <si>
+    <t>gls1234</t>
+  </si>
+  <si>
+    <t>192.150.0.14</t>
+  </si>
+  <si>
+    <t>192.150.0.165</t>
+  </si>
+  <si>
+    <t>192.150.173</t>
   </si>
 </sst>
 </file>
@@ -1058,51 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1129,6 +1102,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1506,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B9:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -1531,14 +1549,14 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>0</v>
@@ -1554,15 +1572,15 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>40</v>
@@ -1571,7 +1589,7 @@
         <v>71</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="33" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1585,13 +1603,13 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>40</v>
@@ -1600,7 +1618,7 @@
         <v>71</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="49"/>
+      <c r="I11" s="34"/>
       <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1615,8 +1633,8 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1648,7 @@
         <v>71</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="49"/>
+      <c r="I12" s="34"/>
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1645,8 +1663,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="25" t="s">
         <v>25</v>
       </c>
@@ -1660,11 +1678,11 @@
         <v>71</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53" t="s">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="54"/>
+      <c r="K13" s="39"/>
       <c r="M13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1679,8 +1697,8 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="25" t="s">
         <v>26</v>
       </c>
@@ -1694,9 +1712,9 @@
         <v>71</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
       <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1711,8 +1729,8 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
@@ -1726,20 +1744,20 @@
         <v>71</v>
       </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="54"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>40</v>
@@ -1748,13 +1766,13 @@
         <v>71</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1768,22 +1786,22 @@
         <v>71</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="53" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="54"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>40</v>
@@ -1792,7 +1810,7 @@
         <v>72</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="36" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1809,8 +1827,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1842,7 @@
         <v>72</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="34"/>
       <c r="M19" s="9" t="s">
         <v>51</v>
       </c>
@@ -1839,13 +1857,13 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>40</v>
@@ -1854,7 +1872,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="49"/>
+      <c r="I20" s="34"/>
       <c r="M20" s="9" t="s">
         <v>52</v>
       </c>
@@ -1869,13 +1887,13 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>40</v>
@@ -1884,11 +1902,11 @@
         <v>72</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="53" t="s">
+      <c r="I21" s="34"/>
+      <c r="J21" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="39"/>
       <c r="M21" s="9" t="s">
         <v>53</v>
       </c>
@@ -1900,8 +1918,8 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1915,9 +1933,9 @@
         <v>72</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
       <c r="M22" s="9" t="s">
         <v>54</v>
       </c>
@@ -1929,8 +1947,8 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1944,11 +1962,11 @@
         <v>72</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="54"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="39"/>
       <c r="M23" s="9" t="s">
         <v>46</v>
       </c>
@@ -1956,13 +1974,13 @@
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>40</v>
@@ -1971,18 +1989,18 @@
         <v>72</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>40</v>
@@ -1991,20 +2009,20 @@
         <v>72</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="54"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>40</v>
@@ -2013,7 +2031,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="49"/>
+      <c r="I26" s="34"/>
       <c r="M26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2028,8 +2046,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2061,7 @@
         <v>72</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="50"/>
+      <c r="I27" s="35"/>
       <c r="M27" s="9" t="s">
         <v>51</v>
       </c>
@@ -2058,15 +2076,15 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>40</v>
@@ -2075,13 +2093,13 @@
         <v>73</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="56"/>
+      <c r="K28" s="41"/>
       <c r="M28" s="9" t="s">
         <v>52</v>
       </c>
@@ -2096,8 +2114,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="25" t="s">
         <v>30</v>
       </c>
@@ -2111,11 +2129,11 @@
         <v>73</v>
       </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="54"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="39"/>
       <c r="M29" s="9" t="s">
         <v>53</v>
       </c>
@@ -2127,13 +2145,13 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>40</v>
@@ -2142,11 +2160,11 @@
         <v>73</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="53" t="s">
+      <c r="I30" s="35"/>
+      <c r="J30" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="54"/>
+      <c r="K30" s="39"/>
       <c r="M30" s="9" t="s">
         <v>54</v>
       </c>
@@ -2158,8 +2176,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -2175,8 +2193,8 @@
         <v>74</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="51" t="s">
-        <v>127</v>
+      <c r="I31" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>46</v>
@@ -2185,8 +2203,8 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="46"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
@@ -2200,15 +2218,15 @@
         <v>74</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="53" t="s">
+      <c r="I32" s="34"/>
+      <c r="J32" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="54"/>
+      <c r="K32" s="39"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2222,13 +2240,13 @@
         <v>74</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2242,15 +2260,15 @@
         <v>74</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="54"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="39"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2264,13 +2282,13 @@
         <v>74</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="47"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="4" t="s">
         <v>36</v>
       </c>
@@ -2284,14 +2302,19 @@
         <v>74</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53" t="s">
+      <c r="I36" s="37"/>
+      <c r="J36" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="54"/>
+      <c r="K36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B9:B36"/>
     <mergeCell ref="I10:I17"/>
     <mergeCell ref="I18:I27"/>
     <mergeCell ref="I28:I30"/>
@@ -2308,11 +2331,6 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B9:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2322,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FF8342-E713-4ECC-957D-961FCC53A967}">
-  <dimension ref="B5:P31"/>
+  <dimension ref="B5:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2354,7 @@
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
@@ -2355,10 +2373,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
@@ -2403,16 +2421,16 @@
       <c r="B10" s="58"/>
       <c r="C10" s="64"/>
       <c r="D10" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="60"/>
@@ -2420,7 +2438,7 @@
         <v>97</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>103</v>
@@ -2442,10 +2460,10 @@
       <c r="H11" s="21"/>
       <c r="I11" s="60"/>
       <c r="M11" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>95</v>
@@ -2464,10 +2482,10 @@
       <c r="H12" s="28"/>
       <c r="I12" s="60"/>
       <c r="M12" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>95</v>
@@ -2480,24 +2498,24 @@
       <c r="B13" s="58"/>
       <c r="C13" s="64"/>
       <c r="D13" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="60"/>
       <c r="M13" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -2530,16 +2548,16 @@
       <c r="B16" s="58"/>
       <c r="C16" s="64"/>
       <c r="D16" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>97</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="60"/>
@@ -2552,9 +2570,9 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="33"/>
       <c r="M17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>0</v>
@@ -2572,16 +2590,16 @@
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="61" t="s">
@@ -2594,7 +2612,7 @@
         <v>51</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>93</v>
@@ -2607,16 +2625,16 @@
       <c r="B19" s="58"/>
       <c r="C19" s="67"/>
       <c r="D19" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="60"/>
@@ -2627,7 +2645,7 @@
         <v>52</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>97</v>
@@ -2640,16 +2658,16 @@
       <c r="B20" s="58"/>
       <c r="C20" s="67"/>
       <c r="D20" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="60"/>
@@ -2657,7 +2675,7 @@
         <v>53</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>97</v>
@@ -2667,16 +2685,16 @@
       <c r="B21" s="58"/>
       <c r="C21" s="67"/>
       <c r="D21" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="60"/>
@@ -2684,7 +2702,7 @@
         <v>54</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>95</v>
@@ -2694,16 +2712,16 @@
       <c r="B22" s="58"/>
       <c r="C22" s="68"/>
       <c r="D22" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="62"/>
@@ -2719,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>106</v>
@@ -2728,7 +2746,7 @@
         <v>97</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="61" t="s">
@@ -2742,7 +2760,7 @@
       <c r="B24" s="58"/>
       <c r="C24" s="70"/>
       <c r="D24" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>106</v>
@@ -2751,7 +2769,7 @@
         <v>97</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="60"/>
@@ -2763,21 +2781,21 @@
       <c r="B25" s="58"/>
       <c r="C25" s="70"/>
       <c r="D25" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="48"/>
+      <c r="I25" s="33"/>
       <c r="M25" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>0</v>
@@ -2795,7 +2813,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>104</v>
@@ -2807,8 +2825,8 @@
         <v>100</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="51" t="s">
-        <v>127</v>
+      <c r="I26" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="J26" t="s">
         <v>94</v>
@@ -2817,7 +2835,7 @@
         <v>51</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>93</v>
@@ -2830,7 +2848,7 @@
       <c r="B27" s="58"/>
       <c r="C27" s="72"/>
       <c r="D27" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>101</v>
@@ -2842,7 +2860,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="49"/>
+      <c r="I27" s="34"/>
       <c r="J27" t="s">
         <v>95</v>
       </c>
@@ -2850,7 +2868,7 @@
         <v>52</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>97</v>
@@ -2863,7 +2881,7 @@
       <c r="B28" s="58"/>
       <c r="C28" s="72"/>
       <c r="D28" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>102</v>
@@ -2875,12 +2893,12 @@
         <v>100</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="49"/>
+      <c r="I28" s="34"/>
       <c r="M28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>97</v>
@@ -2890,10 +2908,10 @@
       <c r="B29" s="58"/>
       <c r="C29" s="72"/>
       <c r="D29" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>95</v>
@@ -2902,12 +2920,12 @@
         <v>100</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="49"/>
+      <c r="I29" s="34"/>
       <c r="M29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>95</v>
@@ -2917,7 +2935,7 @@
       <c r="B30" s="58"/>
       <c r="C30" s="72"/>
       <c r="D30" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>99</v>
@@ -2929,7 +2947,7 @@
         <v>100</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="49"/>
+      <c r="I30" s="34"/>
       <c r="M30" s="9" t="s">
         <v>46</v>
       </c>
@@ -2940,7 +2958,7 @@
       <c r="B31" s="59"/>
       <c r="C31" s="73"/>
       <c r="D31" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>105</v>
@@ -2952,7 +2970,63 @@
         <v>100</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="37"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="M33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2974,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B959F40D-70A9-47C2-99A0-8342AE521164}">
-  <dimension ref="B8:P31"/>
+  <dimension ref="B8:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,13 +3071,13 @@
   <sheetData>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
@@ -3045,30 +3119,30 @@
       <c r="B10" s="58"/>
       <c r="C10" s="78"/>
       <c r="D10" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="60"/>
       <c r="M10" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -3081,16 +3155,16 @@
       <c r="H11" s="21"/>
       <c r="I11" s="60"/>
       <c r="M11" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -3103,46 +3177,46 @@
       <c r="H12" s="28"/>
       <c r="I12" s="60"/>
       <c r="M12" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="58"/>
       <c r="C13" s="78"/>
       <c r="D13" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="60"/>
       <c r="M13" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -3169,16 +3243,16 @@
       <c r="B16" s="58"/>
       <c r="C16" s="78"/>
       <c r="D16" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="60"/>
@@ -3191,9 +3265,9 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="33"/>
       <c r="M17" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>0</v>
@@ -3211,16 +3285,16 @@
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="61" t="s">
@@ -3230,29 +3304,29 @@
         <v>51</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="58"/>
       <c r="C19" s="81"/>
       <c r="D19" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="60"/>
@@ -3260,29 +3334,29 @@
         <v>52</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="58"/>
       <c r="C20" s="81"/>
       <c r="D20" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="60"/>
@@ -3290,7 +3364,7 @@
         <v>53</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>40</v>
@@ -3300,16 +3374,16 @@
       <c r="B21" s="58"/>
       <c r="C21" s="81"/>
       <c r="D21" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="60"/>
@@ -3317,7 +3391,7 @@
         <v>54</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>40</v>
@@ -3327,16 +3401,16 @@
       <c r="B22" s="58"/>
       <c r="C22" s="82"/>
       <c r="D22" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="62"/>
@@ -3352,16 +3426,16 @@
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="61" t="s">
@@ -3372,16 +3446,16 @@
       <c r="B24" s="58"/>
       <c r="C24" s="84"/>
       <c r="D24" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="60"/>
@@ -3390,21 +3464,21 @@
       <c r="B25" s="58"/>
       <c r="C25" s="85"/>
       <c r="D25" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="62"/>
       <c r="M25" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>0</v>
@@ -3422,48 +3496,48 @@
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="74" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="58"/>
       <c r="C27" s="72"/>
       <c r="D27" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="75"/>
@@ -3471,29 +3545,29 @@
         <v>52</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="58"/>
       <c r="C28" s="72"/>
       <c r="D28" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="75"/>
@@ -3501,7 +3575,7 @@
         <v>53</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>40</v>
@@ -3511,16 +3585,16 @@
       <c r="B29" s="58"/>
       <c r="C29" s="72"/>
       <c r="D29" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="75"/>
@@ -3528,7 +3602,7 @@
         <v>54</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>40</v>
@@ -3538,16 +3612,16 @@
       <c r="B30" s="58"/>
       <c r="C30" s="72"/>
       <c r="D30" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="75"/>
@@ -3561,19 +3635,39 @@
       <c r="B31" s="59"/>
       <c r="C31" s="73"/>
       <c r="D31" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="76"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/IP címek.xlsx
+++ b/IP címek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333556A9-5B5C-4479-89D3-B6FC93A42881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDF5509-838D-44EF-AB30-DC701CB5C2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDAPESTI KÖZPONT" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="DATA CENTER" sheetId="5" r:id="rId4"/>
     <sheet name="TAVMUNKAS" sheetId="6" r:id="rId5"/>
     <sheet name="BORDER ROUTERS" sheetId="7" r:id="rId6"/>
+    <sheet name="ISP" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="342">
   <si>
     <t>IP CÍM</t>
   </si>
@@ -713,7 +714,349 @@
     <t>192.150.0.165</t>
   </si>
   <si>
-    <t>192.150.173</t>
+    <t>Router_Border_1</t>
+  </si>
+  <si>
+    <t>Router_Border_2</t>
+  </si>
+  <si>
+    <t>Router_Border_3</t>
+  </si>
+  <si>
+    <t>Router_Border_4</t>
+  </si>
+  <si>
+    <t>IP cím</t>
+  </si>
+  <si>
+    <t>Se0/1/1</t>
+  </si>
+  <si>
+    <t>Se0/1/0</t>
+  </si>
+  <si>
+    <t>Se0/0/0</t>
+  </si>
+  <si>
+    <t>Se0/0/1</t>
+  </si>
+  <si>
+    <t>Se0/2/0</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>88.88.88.0-3</t>
+  </si>
+  <si>
+    <t>88.88.88.4-7</t>
+  </si>
+  <si>
+    <t>88.88.88.8-11</t>
+  </si>
+  <si>
+    <t>88.88.88.12-15</t>
+  </si>
+  <si>
+    <t>88.88.88.16-19</t>
+  </si>
+  <si>
+    <t>88.88.88.20-23</t>
+  </si>
+  <si>
+    <t>88.88.88.24-27</t>
+  </si>
+  <si>
+    <t>88.88.88.28-31</t>
+  </si>
+  <si>
+    <t>88.88.88.32-35</t>
+  </si>
+  <si>
+    <t>88.88.88.36-39</t>
+  </si>
+  <si>
+    <t>88.88.88.40-43</t>
+  </si>
+  <si>
+    <t>88.88.88.44-47</t>
+  </si>
+  <si>
+    <t>88.88.88.48-51</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>88.88.88.1</t>
+  </si>
+  <si>
+    <t>88.88.88.2</t>
+  </si>
+  <si>
+    <t>88.88.88.5</t>
+  </si>
+  <si>
+    <t>88.88.88.6</t>
+  </si>
+  <si>
+    <t>88.88.88.9</t>
+  </si>
+  <si>
+    <t>88.88.88.10</t>
+  </si>
+  <si>
+    <t>88.88.88.13</t>
+  </si>
+  <si>
+    <t>88.88.88.14</t>
+  </si>
+  <si>
+    <t>88.88.88.17</t>
+  </si>
+  <si>
+    <t>88.88.88.18</t>
+  </si>
+  <si>
+    <t>88.88.88.21</t>
+  </si>
+  <si>
+    <t>88.88.88.22</t>
+  </si>
+  <si>
+    <t>88.88.88.25</t>
+  </si>
+  <si>
+    <t>88.88.88.26</t>
+  </si>
+  <si>
+    <t>88.88.88.29</t>
+  </si>
+  <si>
+    <t>88.88.88.30</t>
+  </si>
+  <si>
+    <t>88.88.88.33</t>
+  </si>
+  <si>
+    <t>88.88.88.34</t>
+  </si>
+  <si>
+    <t>88.88.88.37</t>
+  </si>
+  <si>
+    <t>88.88.88.38</t>
+  </si>
+  <si>
+    <t>88.88.88.41</t>
+  </si>
+  <si>
+    <t>88.88.88.45</t>
+  </si>
+  <si>
+    <t>88.88.88.49</t>
+  </si>
+  <si>
+    <t>192.150.0.173</t>
+  </si>
+  <si>
+    <t>SERVER_ADMIN</t>
+  </si>
+  <si>
+    <t>SERVER_PDC</t>
+  </si>
+  <si>
+    <t>SERVER_BDC</t>
+  </si>
+  <si>
+    <t>SERVER_SW_P</t>
+  </si>
+  <si>
+    <t>SERVER_SW_B</t>
+  </si>
+  <si>
+    <t>192.99.99.10</t>
+  </si>
+  <si>
+    <t>192.99.99.254</t>
+  </si>
+  <si>
+    <t>192.99.99.253</t>
+  </si>
+  <si>
+    <t>192.99.99.20</t>
+  </si>
+  <si>
+    <t>192.99.99.21</t>
+  </si>
+  <si>
+    <t>192.99.99.1</t>
+  </si>
+  <si>
+    <t>SERVER_R_P</t>
+  </si>
+  <si>
+    <t>Ser0/0/0</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/1</t>
+  </si>
+  <si>
+    <t>SERVER_R_B</t>
+  </si>
+  <si>
+    <t>88.88.88.42</t>
+  </si>
+  <si>
+    <t>192.99.99.2</t>
+  </si>
+  <si>
+    <t>192.99.99.3</t>
+  </si>
+  <si>
+    <t>88.88.88.46</t>
+  </si>
+  <si>
+    <t>DEAFULT GATEWAY</t>
+  </si>
+  <si>
+    <t>PC_TAVMUNKA_1</t>
+  </si>
+  <si>
+    <t>PC_TAVMUNKA_2</t>
+  </si>
+  <si>
+    <t>SWITCH_TAVMUNKA</t>
+  </si>
+  <si>
+    <t>ROUTER_TAVMUNKA</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/0</t>
+  </si>
+  <si>
+    <t>WIRELESS_TAVMUNKA</t>
+  </si>
+  <si>
+    <t>Internet Port</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>192.1.1.0-191</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>192.1.1.192-195</t>
+  </si>
+  <si>
+    <t>192.1.1.193</t>
+  </si>
+  <si>
+    <t>192.1.1.194</t>
+  </si>
+  <si>
+    <t>192.1.1.1</t>
+  </si>
+  <si>
+    <t>88.88.88.50</t>
+  </si>
+  <si>
+    <t>192.1.1.10</t>
+  </si>
+  <si>
+    <t>192.1.1.11</t>
+  </si>
+  <si>
+    <t>192.1.1.20</t>
+  </si>
+  <si>
+    <t>192.10.10.1</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/2/0</t>
+  </si>
+  <si>
+    <t>172.16.0.1</t>
+  </si>
+  <si>
+    <t>SWITCH_ISP</t>
+  </si>
+  <si>
+    <t>ADMIN_ISP</t>
+  </si>
+  <si>
+    <t>SERVER_ISP</t>
+  </si>
+  <si>
+    <t>ROUTER_ISP</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/0/0</t>
+  </si>
+  <si>
+    <t>172.16.0.0-191</t>
+  </si>
+  <si>
+    <t>172.16.0.192-195</t>
+  </si>
+  <si>
+    <t>172.16.0.193</t>
+  </si>
+  <si>
+    <t>172.16.0.194</t>
+  </si>
+  <si>
+    <t>172.16.0.10</t>
+  </si>
+  <si>
+    <t>172.16.0.5</t>
+  </si>
+  <si>
+    <t>172.16.0.191</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1076,6 +1419,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1103,51 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1234,6 +1577,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,7 +1871,7 @@
   <dimension ref="B9:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D26" sqref="D20:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1886,8 @@
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.140625" customWidth="1"/>
@@ -1549,7 +1896,7 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1572,8 +1919,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1589,7 +1936,7 @@
         <v>71</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="48" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1603,8 +1950,8 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1965,7 @@
         <v>71</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="34"/>
+      <c r="I11" s="49"/>
       <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1633,8 +1980,8 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1648,7 +1995,7 @@
         <v>71</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="49"/>
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1663,8 +2010,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="52"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="25" t="s">
         <v>25</v>
       </c>
@@ -1678,11 +2025,11 @@
         <v>71</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38" t="s">
+      <c r="I13" s="49"/>
+      <c r="J13" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="54"/>
       <c r="M13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1697,8 +2044,8 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="25" t="s">
         <v>26</v>
       </c>
@@ -1712,9 +2059,9 @@
         <v>71</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1729,8 +2076,8 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
@@ -1744,15 +2091,15 @@
         <v>71</v>
       </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="39"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1766,13 +2113,13 @@
         <v>71</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="55"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1786,15 +2133,15 @@
         <v>71</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="38" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1810,7 +2157,7 @@
         <v>72</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="51" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1827,8 +2174,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1842,7 +2189,7 @@
         <v>72</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="34"/>
+      <c r="I19" s="49"/>
       <c r="M19" s="9" t="s">
         <v>51</v>
       </c>
@@ -1857,8 +2204,8 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1872,7 +2219,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="49"/>
       <c r="M20" s="9" t="s">
         <v>52</v>
       </c>
@@ -1887,8 +2234,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
@@ -1902,11 +2249,11 @@
         <v>72</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="38" t="s">
+      <c r="I21" s="49"/>
+      <c r="J21" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="39"/>
+      <c r="K21" s="54"/>
       <c r="M21" s="9" t="s">
         <v>53</v>
       </c>
@@ -1918,8 +2265,8 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1933,9 +2280,9 @@
         <v>72</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="M22" s="9" t="s">
         <v>54</v>
       </c>
@@ -1947,8 +2294,8 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1962,20 +2309,24 @@
         <v>72</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="39"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="54"/>
       <c r="M23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
@@ -1989,13 +2340,13 @@
         <v>72</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
@@ -2009,15 +2360,15 @@
         <v>72</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38" t="s">
+      <c r="I25" s="49"/>
+      <c r="J25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="39"/>
+      <c r="K25" s="54"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
@@ -2031,7 +2382,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="34"/>
+      <c r="I26" s="49"/>
       <c r="M26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2046,8 +2397,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
@@ -2061,7 +2412,7 @@
         <v>72</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="35"/>
+      <c r="I27" s="50"/>
       <c r="M27" s="9" t="s">
         <v>51</v>
       </c>
@@ -2076,8 +2427,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="45" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2093,13 +2444,13 @@
         <v>73</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="36" t="s">
+      <c r="I28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="41"/>
+      <c r="K28" s="56"/>
       <c r="M28" s="9" t="s">
         <v>52</v>
       </c>
@@ -2114,8 +2465,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="25" t="s">
         <v>30</v>
       </c>
@@ -2129,11 +2480,11 @@
         <v>73</v>
       </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="39"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="54"/>
       <c r="M29" s="9" t="s">
         <v>53</v>
       </c>
@@ -2145,8 +2496,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="55"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2160,11 +2511,11 @@
         <v>73</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="38" t="s">
+      <c r="I30" s="50"/>
+      <c r="J30" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="39"/>
+      <c r="K30" s="54"/>
       <c r="M30" s="9" t="s">
         <v>54</v>
       </c>
@@ -2176,8 +2527,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="42" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -2193,18 +2544,22 @@
         <v>74</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="51" t="s">
         <v>124</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
@@ -2218,15 +2573,15 @@
         <v>74</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="38" t="s">
+      <c r="I32" s="49"/>
+      <c r="J32" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="39"/>
+      <c r="K32" s="54"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="55"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2240,13 +2595,13 @@
         <v>74</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="55"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2260,15 +2615,15 @@
         <v>74</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="39"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="54"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="55"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2282,13 +2637,13 @@
         <v>74</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="56"/>
-      <c r="C36" s="44"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="4" t="s">
         <v>36</v>
       </c>
@@ -2302,19 +2657,14 @@
         <v>74</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38" t="s">
+      <c r="I36" s="52"/>
+      <c r="J36" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="39"/>
+      <c r="K36" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B9:B36"/>
     <mergeCell ref="I10:I17"/>
     <mergeCell ref="I18:I27"/>
     <mergeCell ref="I28:I30"/>
@@ -2331,6 +2681,11 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B9:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2342,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FF8342-E713-4ECC-957D-961FCC53A967}">
   <dimension ref="B5:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,7 +2925,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="48"/>
       <c r="M17" s="3" t="s">
         <v>122</v>
       </c>
@@ -2728,8 +3083,12 @@
       <c r="M22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="58"/>
@@ -2784,7 +3143,7 @@
         <v>179</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>97</v>
@@ -2793,7 +3152,7 @@
         <v>107</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="33"/>
+      <c r="I25" s="48"/>
       <c r="M25" s="3" t="s">
         <v>123</v>
       </c>
@@ -2825,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="51" t="s">
         <v>124</v>
       </c>
       <c r="J26" t="s">
@@ -2860,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="34"/>
+      <c r="I27" s="49"/>
       <c r="J27" t="s">
         <v>95</v>
       </c>
@@ -2893,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="34"/>
+      <c r="I28" s="49"/>
       <c r="M28" s="9" t="s">
         <v>53</v>
       </c>
@@ -2920,7 +3279,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="34"/>
+      <c r="I29" s="49"/>
       <c r="M29" s="9" t="s">
         <v>54</v>
       </c>
@@ -2947,12 +3306,16 @@
         <v>100</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="34"/>
+      <c r="I30" s="49"/>
       <c r="M30" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
@@ -2970,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="37"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M32" s="3" t="s">
@@ -3051,7 +3414,7 @@
   <dimension ref="B8:P35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="E21" sqref="E21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,7 +3628,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="48"/>
       <c r="M17" s="3" t="s">
         <v>190</v>
       </c>
@@ -3417,8 +3780,12 @@
       <c r="M22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="58"/>
@@ -3628,8 +3995,12 @@
       <c r="M30" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="59"/>
@@ -3688,38 +4059,815 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B1D64B-60E9-4B31-92C3-B60BB8DA8295}">
-  <dimension ref="A1"/>
+  <dimension ref="G4:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O10" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O11" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O12" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853D04F5-E6DD-4E64-946C-42A2CDC98B8E}">
-  <dimension ref="A1"/>
+  <dimension ref="G2:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L13:L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA071CEA-FF24-4151-8DC3-A9BDBAACAA79}">
-  <dimension ref="A1"/>
+  <dimension ref="C6:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="Q10" sqref="Q10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="86"/>
+      <c r="D7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="86"/>
+      <c r="H7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" s="86"/>
+      <c r="P7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="86"/>
+      <c r="D8" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="86"/>
+      <c r="H8" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="L8" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O8" s="86"/>
+      <c r="P8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="86"/>
+      <c r="D9" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O9" s="86"/>
+      <c r="P9" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="86"/>
+      <c r="D10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="86"/>
+      <c r="H10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O10" s="86"/>
+      <c r="P10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="86"/>
+      <c r="L11" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B19380-DADE-40F1-AC51-CE560A11EE3F}">
+  <dimension ref="G2:R8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>335</v>
+      </c>
+      <c r="P2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IP címek.xlsx
+++ b/IP címek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\suli\technikum\vizsgaremek\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDF5509-838D-44EF-AB30-DC701CB5C2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659325E-F40F-4B88-8349-95F0886382B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDAPESTI KÖZPONT" sheetId="1" r:id="rId1"/>
@@ -984,21 +984,9 @@
     <t>WIFI</t>
   </si>
   <si>
-    <t>192.1.1.0-191</t>
-  </si>
-  <si>
     <t>255.255.255.192</t>
   </si>
   <si>
-    <t>192.1.1.192-195</t>
-  </si>
-  <si>
-    <t>192.1.1.193</t>
-  </si>
-  <si>
-    <t>192.1.1.194</t>
-  </si>
-  <si>
     <t>192.1.1.1</t>
   </si>
   <si>
@@ -1038,25 +1026,37 @@
     <t>GigabitEthernet0/0/0</t>
   </si>
   <si>
-    <t>172.16.0.0-191</t>
-  </si>
-  <si>
-    <t>172.16.0.192-195</t>
-  </si>
-  <si>
-    <t>172.16.0.193</t>
-  </si>
-  <si>
-    <t>172.16.0.194</t>
-  </si>
-  <si>
     <t>172.16.0.10</t>
   </si>
   <si>
     <t>172.16.0.5</t>
   </si>
   <si>
-    <t>172.16.0.191</t>
+    <t>172.16.0.0-63</t>
+  </si>
+  <si>
+    <t>172.16.0.64-68</t>
+  </si>
+  <si>
+    <t>172.16.0.62</t>
+  </si>
+  <si>
+    <t>172.16.0.65</t>
+  </si>
+  <si>
+    <t>172.16.0.66</t>
+  </si>
+  <si>
+    <t>192.1.1.0-63</t>
+  </si>
+  <si>
+    <t>192.1.1.64-68</t>
+  </si>
+  <si>
+    <t>192.1.1.65</t>
+  </si>
+  <si>
+    <t>192.1.1.66</t>
   </si>
 </sst>
 </file>
@@ -1419,6 +1419,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1464,33 +1494,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1577,9 +1580,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1896,7 +1896,7 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1919,8 +1919,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1936,7 +1936,7 @@
         <v>71</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="34" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1950,8 +1950,8 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>71</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="49"/>
+      <c r="I11" s="35"/>
       <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1980,8 +1980,8 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>71</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="49"/>
+      <c r="I12" s="35"/>
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
@@ -2010,8 +2010,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2025,11 +2025,11 @@
         <v>71</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53" t="s">
+      <c r="I13" s="35"/>
+      <c r="J13" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="54"/>
+      <c r="K13" s="40"/>
       <c r="M13" s="3" t="s">
         <v>43</v>
       </c>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="25" t="s">
         <v>26</v>
       </c>
@@ -2059,9 +2059,9 @@
         <v>71</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
@@ -2091,15 +2091,15 @@
         <v>71</v>
       </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="54"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2113,13 +2113,13 @@
         <v>71</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
@@ -2133,15 +2133,15 @@
         <v>71</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="53" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="54"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2157,7 +2157,7 @@
         <v>72</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="37" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -2174,8 +2174,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>72</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="35"/>
       <c r="M19" s="9" t="s">
         <v>51</v>
       </c>
@@ -2204,8 +2204,8 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="49"/>
+      <c r="I20" s="35"/>
       <c r="M20" s="9" t="s">
         <v>52</v>
       </c>
@@ -2234,8 +2234,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
@@ -2249,11 +2249,11 @@
         <v>72</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="53" t="s">
+      <c r="I21" s="35"/>
+      <c r="J21" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="40"/>
       <c r="M21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2265,8 +2265,8 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2280,9 +2280,9 @@
         <v>72</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
       <c r="M22" s="9" t="s">
         <v>54</v>
       </c>
@@ -2294,8 +2294,8 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
@@ -2309,11 +2309,11 @@
         <v>72</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="54"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="40"/>
       <c r="M23" s="9" t="s">
         <v>46</v>
       </c>
@@ -2325,8 +2325,8 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2340,13 +2340,13 @@
         <v>72</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
@@ -2360,15 +2360,15 @@
         <v>72</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53" t="s">
+      <c r="I25" s="35"/>
+      <c r="J25" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="54"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="49"/>
+      <c r="I26" s="35"/>
       <c r="M26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2397,8 +2397,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>72</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="50"/>
+      <c r="I27" s="36"/>
       <c r="M27" s="9" t="s">
         <v>51</v>
       </c>
@@ -2427,8 +2427,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2444,13 +2444,13 @@
         <v>73</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="56"/>
+      <c r="K28" s="42"/>
       <c r="M28" s="9" t="s">
         <v>52</v>
       </c>
@@ -2465,8 +2465,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="25" t="s">
         <v>30</v>
       </c>
@@ -2480,11 +2480,11 @@
         <v>73</v>
       </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="54"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="40"/>
       <c r="M29" s="9" t="s">
         <v>53</v>
       </c>
@@ -2496,8 +2496,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2511,11 +2511,11 @@
         <v>73</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="53" t="s">
+      <c r="I30" s="36"/>
+      <c r="J30" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="54"/>
+      <c r="K30" s="40"/>
       <c r="M30" s="9" t="s">
         <v>54</v>
       </c>
@@ -2527,8 +2527,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -2544,7 +2544,7 @@
         <v>74</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="37" t="s">
         <v>124</v>
       </c>
       <c r="M31" s="9" t="s">
@@ -2558,8 +2558,8 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="46"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
@@ -2573,15 +2573,15 @@
         <v>74</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="53" t="s">
+      <c r="I32" s="35"/>
+      <c r="J32" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="54"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2595,13 +2595,13 @@
         <v>74</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="34"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2615,15 +2615,15 @@
         <v>74</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="54"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2637,13 +2637,13 @@
         <v>74</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="47"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="4" t="s">
         <v>36</v>
       </c>
@@ -2657,14 +2657,19 @@
         <v>74</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53" t="s">
+      <c r="I36" s="38"/>
+      <c r="J36" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="54"/>
+      <c r="K36" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B9:B36"/>
     <mergeCell ref="I10:I17"/>
     <mergeCell ref="I18:I27"/>
     <mergeCell ref="I28:I30"/>
@@ -2681,11 +2686,6 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B9:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2747,8 +2747,8 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="6"/>
@@ -2756,7 +2756,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="61" t="s">
         <v>38</v>
       </c>
       <c r="J9" t="s">
@@ -2773,8 +2773,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="16" t="s">
         <v>169</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>115</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="61"/>
       <c r="J10" t="s">
         <v>97</v>
       </c>
@@ -2806,14 +2806,14 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="17"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="61"/>
       <c r="M11" s="3" t="s">
         <v>119</v>
       </c>
@@ -2828,14 +2828,14 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="61"/>
       <c r="M12" s="3" t="s">
         <v>120</v>
       </c>
@@ -2850,8 +2850,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="29" t="s">
         <v>170</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>115</v>
       </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="60"/>
+      <c r="I13" s="61"/>
       <c r="M13" s="3" t="s">
         <v>121</v>
       </c>
@@ -2880,28 +2880,28 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="60"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="18"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="16" t="s">
         <v>171</v>
       </c>
@@ -2915,17 +2915,17 @@
         <v>115</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="16"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="34"/>
       <c r="M17" s="3" t="s">
         <v>122</v>
       </c>
@@ -2940,8 +2940,8 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="66" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="67" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2957,7 +2957,7 @@
         <v>113</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="62" t="s">
         <v>37</v>
       </c>
       <c r="J18" t="s">
@@ -2977,8 +2977,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="4" t="s">
         <v>173</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>113</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="61"/>
       <c r="J19" t="s">
         <v>93</v>
       </c>
@@ -3010,8 +3010,8 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="4" t="s">
         <v>174</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>113</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="61"/>
       <c r="M20" s="9" t="s">
         <v>53</v>
       </c>
@@ -3037,8 +3037,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="4" t="s">
         <v>175</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>113</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="61"/>
       <c r="M21" s="9" t="s">
         <v>54</v>
       </c>
@@ -3064,8 +3064,8 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="6" t="s">
         <v>176</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>113</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="62"/>
+      <c r="I22" s="63"/>
       <c r="M22" s="9" t="s">
         <v>46</v>
       </c>
@@ -3091,8 +3091,8 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="69" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3108,7 +3108,7 @@
         <v>107</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="62" t="s">
         <v>39</v>
       </c>
       <c r="J23" t="s">
@@ -3116,8 +3116,8 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="25" t="s">
         <v>178</v>
       </c>
@@ -3131,14 +3131,14 @@
         <v>107</v>
       </c>
       <c r="H24" s="25"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="61"/>
       <c r="J24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="6" t="s">
         <v>179</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>107</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="48"/>
+      <c r="I25" s="34"/>
       <c r="M25" s="3" t="s">
         <v>123</v>
       </c>
@@ -3167,8 +3167,8 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="71" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="72" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="37" t="s">
         <v>124</v>
       </c>
       <c r="J26" t="s">
@@ -3204,8 +3204,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="4" t="s">
         <v>181</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="49"/>
+      <c r="I27" s="35"/>
       <c r="J27" t="s">
         <v>95</v>
       </c>
@@ -3237,8 +3237,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="4" t="s">
         <v>182</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="49"/>
+      <c r="I28" s="35"/>
       <c r="M28" s="9" t="s">
         <v>53</v>
       </c>
@@ -3264,8 +3264,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="4" t="s">
         <v>183</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="49"/>
+      <c r="I29" s="35"/>
       <c r="M29" s="9" t="s">
         <v>54</v>
       </c>
@@ -3291,8 +3291,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="4" t="s">
         <v>184</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="49"/>
+      <c r="I30" s="35"/>
       <c r="M30" s="9" t="s">
         <v>46</v>
       </c>
@@ -3318,8 +3318,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="4" t="s">
         <v>185</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M32" s="3" t="s">
@@ -3433,7 +3433,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3456,8 +3456,8 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="78" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="6"/>
@@ -3465,7 +3465,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="61" t="s">
         <v>37</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -3479,8 +3479,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="16" t="s">
         <v>192</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>135</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="61"/>
       <c r="M10" s="3" t="s">
         <v>186</v>
       </c>
@@ -3509,14 +3509,14 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="17"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="61"/>
       <c r="M11" s="3" t="s">
         <v>187</v>
       </c>
@@ -3531,14 +3531,14 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="61"/>
       <c r="M12" s="3" t="s">
         <v>188</v>
       </c>
@@ -3553,8 +3553,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
-      <c r="C13" s="78"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="29" t="s">
         <v>193</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>135</v>
       </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="60"/>
+      <c r="I13" s="61"/>
       <c r="M13" s="3" t="s">
         <v>189</v>
       </c>
@@ -3583,28 +3583,28 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="78"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="60"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="78"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="18"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="16" t="s">
         <v>194</v>
       </c>
@@ -3618,17 +3618,17 @@
         <v>135</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="16"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="34"/>
       <c r="M17" s="3" t="s">
         <v>190</v>
       </c>
@@ -3643,8 +3643,8 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="80" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="81" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -3660,7 +3660,7 @@
         <v>143</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="62" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="9" t="s">
@@ -3677,8 +3677,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="4" t="s">
         <v>196</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>143</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="61"/>
       <c r="M19" s="9" t="s">
         <v>52</v>
       </c>
@@ -3707,8 +3707,8 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="81"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="4" t="s">
         <v>197</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>143</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="61"/>
       <c r="M20" s="9" t="s">
         <v>53</v>
       </c>
@@ -3734,8 +3734,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="4" t="s">
         <v>198</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>143</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="61"/>
       <c r="M21" s="9" t="s">
         <v>54</v>
       </c>
@@ -3761,8 +3761,8 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="6" t="s">
         <v>199</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>143</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="62"/>
+      <c r="I22" s="63"/>
       <c r="M22" s="9" t="s">
         <v>46</v>
       </c>
@@ -3788,8 +3788,8 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="83" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="84" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3805,13 +3805,13 @@
         <v>144</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="62" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="58"/>
-      <c r="C24" s="84"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="25" t="s">
         <v>201</v>
       </c>
@@ -3825,11 +3825,11 @@
         <v>144</v>
       </c>
       <c r="H24" s="25"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="6" t="s">
         <v>202</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>144</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="62"/>
+      <c r="I25" s="63"/>
       <c r="M25" s="3" t="s">
         <v>191</v>
       </c>
@@ -3858,8 +3858,8 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="58"/>
-      <c r="C26" s="71" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="72" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3875,7 +3875,7 @@
         <v>145</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="75" t="s">
         <v>124</v>
       </c>
       <c r="M26" s="9" t="s">
@@ -3892,8 +3892,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="4" t="s">
         <v>204</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>145</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="75"/>
+      <c r="I27" s="76"/>
       <c r="M27" s="9" t="s">
         <v>52</v>
       </c>
@@ -3922,8 +3922,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="4" t="s">
         <v>205</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>145</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="75"/>
+      <c r="I28" s="76"/>
       <c r="M28" s="9" t="s">
         <v>53</v>
       </c>
@@ -3949,8 +3949,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="4" t="s">
         <v>206</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>145</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="75"/>
+      <c r="I29" s="76"/>
       <c r="M29" s="9" t="s">
         <v>54</v>
       </c>
@@ -3976,8 +3976,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="4" t="s">
         <v>207</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>145</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="75"/>
+      <c r="I30" s="76"/>
       <c r="M30" s="9" t="s">
         <v>46</v>
       </c>
@@ -4003,8 +4003,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="4" t="s">
         <v>208</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>145</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="76"/>
+      <c r="I31" s="77"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
@@ -4061,7 +4061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B1D64B-60E9-4B31-92C3-B60BB8DA8295}">
   <dimension ref="G4:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -4230,7 +4230,7 @@
   <dimension ref="G2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L13:L14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4245,15 +4245,15 @@
   <sheetData>
     <row r="2" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="L2" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L3" t="s">
         <v>238</v>
@@ -4287,19 +4287,19 @@
         <v>309</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>234</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>238</v>
@@ -4310,19 +4310,19 @@
         <v>310</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>313</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>238</v>
@@ -4333,22 +4333,22 @@
         <v>311</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>302</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="7:14" x14ac:dyDescent="0.25">
@@ -4367,7 +4367,7 @@
         <v>315</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>238</v>
@@ -4378,7 +4378,7 @@
         <v>316</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>40</v>
@@ -4394,7 +4394,7 @@
   <dimension ref="C6:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:R10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,7 +4452,7 @@
       </c>
     </row>
     <row r="7" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="86"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="9" t="s">
         <v>233</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="F7" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="9" t="s">
         <v>233</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="J7" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="86"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="9" t="s">
         <v>233</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="N7" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="O7" s="86"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="9" t="s">
         <v>233</v>
       </c>
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="86"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="9" t="s">
         <v>232</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="F8" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="9" t="s">
         <v>232</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="J8" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="86"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="9" t="s">
         <v>232</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="N8" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="O8" s="86"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="9" t="s">
         <v>236</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="86"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="9" t="s">
         <v>234</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="F9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="86"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="9" t="s">
         <v>234</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="J9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K9" s="86"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="9" t="s">
         <v>234</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="N9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="O9" s="86"/>
+      <c r="O9" s="33"/>
       <c r="P9" s="9" t="s">
         <v>234</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="86"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="9" t="s">
         <v>235</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="F10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G10" s="86"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="9" t="s">
         <v>235</v>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="J10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="86"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="9" t="s">
         <v>235</v>
       </c>
@@ -4608,7 +4608,7 @@
       <c r="N10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="O10" s="86"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="9" t="s">
         <v>235</v>
       </c>
@@ -4621,15 +4621,15 @@
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K11" s="86"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="9" t="s">
         <v>236</v>
       </c>
@@ -4754,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B19380-DADE-40F1-AC51-CE560A11EE3F}">
   <dimension ref="G2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4770,15 +4770,15 @@
   <sheetData>
     <row r="2" spans="7:18" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="7:18" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P3" t="s">
         <v>238</v>
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>0</v>
@@ -4809,22 +4809,22 @@
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>334</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>238</v>
@@ -4832,39 +4832,39 @@
     </row>
     <row r="7" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G7" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>313</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G8" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/IP címek.xlsx
+++ b/IP címek.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\suli\technikum\vizsgaremek\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Informatikai-rendszer-es-alkalmazas-uzemelteto-technikusi-vizgsa-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659325E-F40F-4B88-8349-95F0886382B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9D18F0-DDF7-4FD0-BA64-0B5215FB220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUDAPESTI KÖZPONT" sheetId="1" r:id="rId1"/>
     <sheet name="GYŐRI TELEPHELY" sheetId="2" r:id="rId2"/>
     <sheet name="DEBRECENI TELEPHELY" sheetId="4" r:id="rId3"/>
-    <sheet name="DATA CENTER" sheetId="5" r:id="rId4"/>
-    <sheet name="TAVMUNKAS" sheetId="6" r:id="rId5"/>
-    <sheet name="BORDER ROUTERS" sheetId="7" r:id="rId6"/>
-    <sheet name="ISP" sheetId="8" r:id="rId7"/>
+    <sheet name="TAVMUNKAS" sheetId="6" r:id="rId4"/>
+    <sheet name="BORDER ROUTERS" sheetId="7" r:id="rId5"/>
+    <sheet name="ISP" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="324">
   <si>
     <t>IP CÍM</t>
   </si>
@@ -900,61 +899,7 @@
     <t>192.150.0.173</t>
   </si>
   <si>
-    <t>SERVER_ADMIN</t>
-  </si>
-  <si>
-    <t>SERVER_PDC</t>
-  </si>
-  <si>
-    <t>SERVER_BDC</t>
-  </si>
-  <si>
-    <t>SERVER_SW_P</t>
-  </si>
-  <si>
-    <t>SERVER_SW_B</t>
-  </si>
-  <si>
-    <t>192.99.99.10</t>
-  </si>
-  <si>
-    <t>192.99.99.254</t>
-  </si>
-  <si>
-    <t>192.99.99.253</t>
-  </si>
-  <si>
-    <t>192.99.99.20</t>
-  </si>
-  <si>
-    <t>192.99.99.21</t>
-  </si>
-  <si>
-    <t>192.99.99.1</t>
-  </si>
-  <si>
-    <t>SERVER_R_P</t>
-  </si>
-  <si>
-    <t>Ser0/0/0</t>
-  </si>
-  <si>
     <t>GigabitEthernet0/1</t>
-  </si>
-  <si>
-    <t>SERVER_R_B</t>
-  </si>
-  <si>
-    <t>88.88.88.42</t>
-  </si>
-  <si>
-    <t>192.99.99.2</t>
-  </si>
-  <si>
-    <t>192.99.99.3</t>
-  </si>
-  <si>
-    <t>88.88.88.46</t>
   </si>
   <si>
     <t>DEAFULT GATEWAY</t>
@@ -1422,6 +1367,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1448,51 +1438,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1871,7 +1816,7 @@
   <dimension ref="B9:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D20:D26"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1841,7 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1919,8 +1864,8 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1936,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="49" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1950,8 +1895,8 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1965,7 +1910,7 @@
         <v>71</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="35"/>
+      <c r="I11" s="50"/>
       <c r="M11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1980,8 +1925,8 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
-      <c r="C12" s="53"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +1940,7 @@
         <v>71</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="35"/>
+      <c r="I12" s="50"/>
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
@@ -2010,8 +1955,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="25" t="s">
         <v>25</v>
       </c>
@@ -2025,11 +1970,11 @@
         <v>71</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="55"/>
       <c r="M13" s="3" t="s">
         <v>43</v>
       </c>
@@ -2044,8 +1989,8 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="25" t="s">
         <v>26</v>
       </c>
@@ -2059,9 +2004,9 @@
         <v>71</v>
       </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
       <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
@@ -2076,8 +2021,8 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
@@ -2091,15 +2036,15 @@
         <v>71</v>
       </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="40"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2113,13 +2058,13 @@
         <v>71</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
@@ -2133,15 +2078,15 @@
         <v>71</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="39" t="s">
+      <c r="I17" s="51"/>
+      <c r="J17" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="40" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2157,7 +2102,7 @@
         <v>72</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="52" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -2174,8 +2119,8 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2189,7 +2134,7 @@
         <v>72</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="35"/>
+      <c r="I19" s="50"/>
       <c r="M19" s="9" t="s">
         <v>51</v>
       </c>
@@ -2204,8 +2149,8 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2219,7 +2164,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="35"/>
+      <c r="I20" s="50"/>
       <c r="M20" s="9" t="s">
         <v>52</v>
       </c>
@@ -2234,8 +2179,8 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
@@ -2249,11 +2194,11 @@
         <v>72</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="39" t="s">
+      <c r="I21" s="50"/>
+      <c r="J21" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="40"/>
+      <c r="K21" s="55"/>
       <c r="M21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2265,8 +2210,8 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2280,9 +2225,9 @@
         <v>72</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
       <c r="M22" s="9" t="s">
         <v>54</v>
       </c>
@@ -2294,8 +2239,8 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
@@ -2309,11 +2254,11 @@
         <v>72</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="40"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="55"/>
       <c r="M23" s="9" t="s">
         <v>46</v>
       </c>
@@ -2325,8 +2270,8 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2340,13 +2285,13 @@
         <v>72</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="56"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
@@ -2360,15 +2305,15 @@
         <v>72</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="39" t="s">
+      <c r="I25" s="50"/>
+      <c r="J25" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="40"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
@@ -2382,7 +2327,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="35"/>
+      <c r="I26" s="50"/>
       <c r="M26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2397,8 +2342,8 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2357,7 @@
         <v>72</v>
       </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="51"/>
       <c r="M27" s="9" t="s">
         <v>51</v>
       </c>
@@ -2427,8 +2372,8 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="56"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2444,13 +2389,13 @@
         <v>73</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="42"/>
+      <c r="K28" s="57"/>
       <c r="M28" s="9" t="s">
         <v>52</v>
       </c>
@@ -2465,8 +2410,8 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="56"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="25" t="s">
         <v>30</v>
       </c>
@@ -2480,11 +2425,11 @@
         <v>73</v>
       </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="40"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="55"/>
       <c r="M29" s="9" t="s">
         <v>53</v>
       </c>
@@ -2496,8 +2441,8 @@
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
@@ -2511,11 +2456,11 @@
         <v>73</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="39" t="s">
+      <c r="I30" s="51"/>
+      <c r="J30" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="40"/>
+      <c r="K30" s="55"/>
       <c r="M30" s="9" t="s">
         <v>54</v>
       </c>
@@ -2527,8 +2472,8 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="56"/>
-      <c r="C31" s="43" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -2544,7 +2489,7 @@
         <v>74</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="52" t="s">
         <v>124</v>
       </c>
       <c r="M31" s="9" t="s">
@@ -2558,8 +2503,8 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
@@ -2573,15 +2518,15 @@
         <v>74</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="39" t="s">
+      <c r="I32" s="50"/>
+      <c r="J32" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="40"/>
+      <c r="K32" s="55"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
-      <c r="C33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2595,13 +2540,13 @@
         <v>74</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="40"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2615,15 +2560,15 @@
         <v>74</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="40"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
-      <c r="C35" s="44"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2637,13 +2582,13 @@
         <v>74</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
-      <c r="C36" s="45"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="4" t="s">
         <v>36</v>
       </c>
@@ -2657,19 +2602,14 @@
         <v>74</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39" t="s">
+      <c r="I36" s="53"/>
+      <c r="J36" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="40"/>
+      <c r="K36" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="B9:B36"/>
     <mergeCell ref="I10:I17"/>
     <mergeCell ref="I18:I27"/>
     <mergeCell ref="I28:I30"/>
@@ -2686,6 +2626,11 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B9:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2925,7 +2870,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="3" t="s">
         <v>122</v>
       </c>
@@ -3152,7 +3097,7 @@
         <v>107</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="34"/>
+      <c r="I25" s="49"/>
       <c r="M25" s="3" t="s">
         <v>123</v>
       </c>
@@ -3184,7 +3129,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="52" t="s">
         <v>124</v>
       </c>
       <c r="J26" t="s">
@@ -3219,7 +3164,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="35"/>
+      <c r="I27" s="50"/>
       <c r="J27" t="s">
         <v>95</v>
       </c>
@@ -3252,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="35"/>
+      <c r="I28" s="50"/>
       <c r="M28" s="9" t="s">
         <v>53</v>
       </c>
@@ -3279,7 +3224,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="35"/>
+      <c r="I29" s="50"/>
       <c r="M29" s="9" t="s">
         <v>54</v>
       </c>
@@ -3306,7 +3251,7 @@
         <v>100</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="35"/>
+      <c r="I30" s="50"/>
       <c r="M30" s="9" t="s">
         <v>46</v>
       </c>
@@ -3333,7 +3278,7 @@
         <v>100</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="38"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M32" s="3" t="s">
@@ -3414,7 +3359,7 @@
   <dimension ref="B8:P35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:H21"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +3573,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="3" t="s">
         <v>190</v>
       </c>
@@ -4058,178 +4003,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B1D64B-60E9-4B31-92C3-B60BB8DA8295}">
-  <dimension ref="G4:Q12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G5" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G6" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G8" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G9" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="O10" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="O11" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="O12" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853D04F5-E6DD-4E64-946C-42A2CDC98B8E}">
   <dimension ref="G2:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -4245,15 +4022,15 @@
   <sheetData>
     <row r="2" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="L2" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="L3" t="s">
         <v>238</v>
@@ -4270,10 +4047,10 @@
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>0</v>
@@ -4284,22 +4061,22 @@
     </row>
     <row r="6" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>234</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>238</v>
@@ -4307,22 +4084,22 @@
     </row>
     <row r="7" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G7" s="4" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>238</v>
@@ -4330,30 +4107,30 @@
     </row>
     <row r="8" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G8" s="4" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="7:14" x14ac:dyDescent="0.25">
       <c r="L12" s="3" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>0</v>
@@ -4364,10 +4141,10 @@
     </row>
     <row r="13" spans="7:14" x14ac:dyDescent="0.25">
       <c r="L13" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>238</v>
@@ -4375,10 +4152,10 @@
     </row>
     <row r="14" spans="7:14" x14ac:dyDescent="0.25">
       <c r="L14" s="9" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>40</v>
@@ -4389,7 +4166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA071CEA-FF24-4151-8DC3-A9BDBAACAA79}">
   <dimension ref="C6:R32"/>
   <sheetViews>
@@ -4621,10 +4398,10 @@
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>238</v>
@@ -4750,7 +4527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B19380-DADE-40F1-AC51-CE560A11EE3F}">
   <dimension ref="G2:R8"/>
   <sheetViews>
@@ -4770,15 +4547,15 @@
   <sheetData>
     <row r="2" spans="7:18" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="P2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="7:18" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="P3" t="s">
         <v>238</v>
@@ -4798,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>0</v>
@@ -4809,22 +4586,22 @@
     </row>
     <row r="6" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>238</v>
@@ -4832,39 +4609,39 @@
     </row>
     <row r="7" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G7" s="4" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G8" s="4" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
